--- a/design-docs/Design_db_sys.xlsx
+++ b/design-docs/Design_db_sys.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sejal\Desktop\python\oorjan_sv\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sejal\Desktop\python\oorjan_sv\design-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -148,7 +148,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Field may be present in future, if IK needs to be mapped to Installation at the time of new entry</t>
+FK: Reference.ID</t>
         </r>
       </text>
     </comment>
@@ -332,36 +332,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="L15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Sejal Vaidya:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Fetch and Store Ref Data/JSON for each installation</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>XYZ789</t>
   </si>
@@ -450,98 +426,13 @@
     <t>InstallationKey</t>
   </si>
   <si>
-    <t>Ref API call (Lat/Lon/SC parameters)</t>
-  </si>
-  <si>
-    <t>Preliminary Setup</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 0-a2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Response (JSON) - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ref Data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Step 0-b:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Add/Edit InstallationKey</t>
-    </r>
-  </si>
-  <si>
     <t>DC</t>
   </si>
   <si>
-    <t>Web Service: Admin/API (InstallationKey)</t>
-  </si>
-  <si>
     <t>System_Capacity</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 0-a1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Add/Edit Reference Data (Lat/Lon/SC)</t>
-    </r>
-  </si>
-  <si>
-    <t>Web Service: Admin/API (Reference)</t>
   </si>
   <si>
     <r>
@@ -711,12 +602,6 @@
     <t>Stage</t>
   </si>
   <si>
-    <t>0-a1</t>
-  </si>
-  <si>
-    <t>0-a2</t>
-  </si>
-  <si>
     <t>0-b</t>
   </si>
   <si>
@@ -804,9 +689,6 @@
   </si>
   <si>
     <t>Add/Edit InstallationKey data - Lat/Lon/SC, IKey will be auto-generated (UUID)</t>
-  </si>
-  <si>
-    <t>Add/Edit Installation Metadata (Reference) - Lat/Lon/SC</t>
   </si>
   <si>
     <r>
@@ -883,13 +765,97 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Corresponding Ref DC values are auto-fetched &amp; stored from Ref API, on saving Installation Metadata</t>
-  </si>
-  <si>
     <t>Manual (currently)</t>
   </si>
   <si>
     <t>Manual/scheduled</t>
+  </si>
+  <si>
+    <t>Web Service: Admin/API (PostInstallationKey)</t>
+  </si>
+  <si>
+    <t>API: GetPerformance</t>
+  </si>
+  <si>
+    <t>API: PostInstallationKey</t>
+  </si>
+  <si>
+    <t>Request to Admin/API (PostInstallationKey)</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 0-a:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> API call - Lat/Long/SC parameters (InstallationKey)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 0-b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Get Reference Data based on IK's Lat/Lon/SC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 0-c:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> API Call to Ref URL: Response - Store Ref DC JSON in Reference and Ref-ID as Installation_ID (IK)</t>
+    </r>
+  </si>
+  <si>
+    <t>0-a</t>
+  </si>
+  <si>
+    <t>0-c</t>
+  </si>
+  <si>
+    <t>Call to Reference table/URL - Lat/Lon/SC parameters (from Step 0-a)</t>
+  </si>
+  <si>
+    <t>Corresponding Ref DC values are auto-fetched &amp; stored in Ref table, on saving InstallationKey entry (Installation_Key.Installation_ID=Reference.ID)</t>
   </si>
 </sst>
 </file>
@@ -900,7 +866,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1037,6 +1003,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1425,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1448,8 +1421,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1505,9 +1476,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1529,6 +1497,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1538,6 +1518,36 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1559,9 +1569,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1580,78 +1587,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1669,6 +1607,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1792,13 +1787,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:colOff>866775</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
@@ -1809,7 +1804,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7353300" y="2381250"/>
+          <a:off x="7400925" y="2381250"/>
           <a:ext cx="1200150" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
@@ -1839,16 +1834,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609598</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1066799</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>190503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28579</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1857,14 +1852,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="8691560" y="2900364"/>
-          <a:ext cx="866778" cy="1"/>
+          <a:off x="8624888" y="2528889"/>
+          <a:ext cx="819148" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:prstDash val="sysDash"/>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2080,54 +2076,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600077</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Curved Connector 33"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="8853488" y="3824286"/>
-          <a:ext cx="257176" cy="3"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247648</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -2136,7 +2084,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2154,6 +2102,7 @@
         </a:prstGeom>
         <a:ln>
           <a:prstDash val="sysDash"/>
+          <a:headEnd type="none"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2177,15 +2126,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2194,8 +2143,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="466725" y="3105150"/>
-          <a:ext cx="11258550" cy="12700"/>
+          <a:off x="285750" y="3009900"/>
+          <a:ext cx="12068175" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -2351,6 +2300,199 @@
         <a:ln>
           <a:prstDash val="solid"/>
           <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466727</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Curved Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9934577" y="2895602"/>
+          <a:ext cx="847723" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Curved Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8743950" y="3905250"/>
+          <a:ext cx="1133475" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Curved Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="1943100"/>
+          <a:ext cx="2038350" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Curved Connector 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5962650" y="3924300"/>
+          <a:ext cx="1676400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2640,7 +2782,7 @@
   <dimension ref="B1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2663,7 +2805,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="23"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2701,17 +2843,17 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -2720,10 +2862,10 @@
       <c r="E10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="95" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -2738,12 +2880,12 @@
       <c r="L10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="29" t="s">
-        <v>34</v>
+      <c r="M10" s="27" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
@@ -2755,31 +2897,31 @@
         <f>K$11+0.5</f>
         <v>72.587699999999998</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="24">
         <v>10</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="96">
         <v>1</v>
       </c>
       <c r="I11" s="10">
         <v>1</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="24">
         <v>19.076000000000001</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="24">
         <v>72.087699999999998</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="24">
         <v>10</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="11">
@@ -2790,31 +2932,31 @@
         <f>K$11-0.5</f>
         <v>71.587699999999998</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="24">
         <v>10</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="96">
         <v>1</v>
       </c>
       <c r="I12" s="10">
         <v>2</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="24">
         <v>12.9716</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="24">
         <v>77.5946</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="24">
         <v>5</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="11">
@@ -2825,30 +2967,30 @@
         <f>K$12+0.5</f>
         <v>78.0946</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="24">
         <v>5</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="96">
         <v>2</v>
       </c>
       <c r="I13" s="10">
         <v>3</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="24">
         <v>28.7041</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="24">
         <v>77.102500000000006</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="24">
         <v>3</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="10" t="s">
         <v>0</v>
       </c>
@@ -2860,10 +3002,10 @@
         <f>K$12-0.5</f>
         <v>77.0946</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="24">
         <v>5</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="96">
         <v>2</v>
       </c>
       <c r="I14" s="13"/>
@@ -2874,20 +3016,20 @@
     </row>
     <row r="15" spans="2:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="I15" s="55" t="s">
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="I15" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="57"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G16" s="11"/>
@@ -2897,12 +3039,12 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="23"/>
+      <c r="D17" s="21"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="23"/>
+      <c r="K18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2919,17 +3061,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N20"/>
+  <dimension ref="B1:N22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.25" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="7.375" style="6" customWidth="1"/>
@@ -2947,127 +3089,127 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="61" t="s">
+      <c r="B2" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="61" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
     </row>
     <row r="3" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84"/>
-      <c r="D3" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="H3" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="79"/>
+      <c r="B3" s="59"/>
+      <c r="D3" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="H3" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="88"/>
     </row>
     <row r="4" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="84"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-      <c r="H4" s="99" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="B4" s="59"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="H4" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="74"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="78"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84"/>
+      <c r="B5" s="59"/>
     </row>
     <row r="6" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="84"/>
+      <c r="B6" s="59"/>
     </row>
     <row r="7" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="84"/>
-      <c r="D7" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="72"/>
+      <c r="B7" s="59"/>
+      <c r="D7" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="82"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="84"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
+      <c r="B8" s="59"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="77"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="11"/>
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="84"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="59"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="24"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="84"/>
-      <c r="D10" s="61" t="s">
+      <c r="B10" s="59"/>
+      <c r="D10" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="63"/>
+      <c r="E10" s="64"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-      <c r="L10" s="68" t="s">
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
+      <c r="L10" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="70"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="84"/>
+      <c r="B11" s="59"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -3078,79 +3220,103 @@
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="85"/>
-      <c r="G12" s="61" t="s">
+      <c r="B12" s="60"/>
+      <c r="G12" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="64"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="92"/>
-      <c r="L15" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="89"/>
-    </row>
-    <row r="16" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="81"/>
-      <c r="G16" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
-      <c r="L16" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="63"/>
-    </row>
-    <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81"/>
+    <row r="14" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="103"/>
+      <c r="M15" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15" s="110"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="105"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="111"/>
+    </row>
+    <row r="17" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="107"/>
+      <c r="N17" s="111"/>
     </row>
     <row r="18" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="81"/>
-      <c r="L18" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" s="86"/>
-      <c r="N18" s="87"/>
+      <c r="B18" s="59"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="102"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="112"/>
     </row>
     <row r="19" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
-      <c r="L19" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="62"/>
-      <c r="N19" s="63"/>
+      <c r="B19" s="60"/>
+      <c r="E19" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+      <c r="K19" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
     </row>
     <row r="20" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B15:B19"/>
+  <mergeCells count="22">
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="M15:N18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="D7:E9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="B2:B12"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
     <mergeCell ref="D3:F4"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H3:J3"/>
@@ -3158,13 +3324,6 @@
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="G12:N12"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="D7:E9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -3185,7 +3344,7 @@
   <cols>
     <col min="1" max="1" width="11" style="6"/>
     <col min="2" max="2" width="12.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="85.625" style="14" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.625" style="6" bestFit="1" customWidth="1"/>
@@ -3199,136 +3358,134 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="2:5" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="2:5" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" spans="2:5" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="34">
+        <v>2</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="34">
+        <v>3</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="39" t="s">
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="34">
+        <v>4</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="E11" s="47"/>
+    </row>
+    <row r="12" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="40">
+        <v>5</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="49" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="48"/>
-    </row>
-    <row r="6" spans="2:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="36">
-        <v>2</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="49"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="36">
-        <v>3</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="49"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="36">
-        <v>4</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="49"/>
-    </row>
-    <row r="12" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="42">
-        <v>5</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3342,7 +3499,7 @@
   <dimension ref="B3:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3376,44 +3533,44 @@
       </c>
       <c r="G5" s="1"/>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M5" s="1"/>
       <c r="P5" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="N7" s="102" t="s">
+      <c r="E7" s="90"/>
+      <c r="N7" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="103"/>
+      <c r="O7" s="90"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D8" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="107"/>
-      <c r="N8" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="107"/>
+      <c r="D8" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="94"/>
+      <c r="N8" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="N9" s="104" t="s">
+      <c r="E9" s="92"/>
+      <c r="N9" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="105"/>
+      <c r="O9" s="92"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -3444,11 +3601,11 @@
       </c>
       <c r="G12" s="1"/>
       <c r="L12" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M12" s="1"/>
       <c r="P12" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
